--- a/SMITHFIELD/SMITHFIELD.xlsx
+++ b/SMITHFIELD/SMITHFIELD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\models\SMITHFIELD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5280A912-EA05-4789-895F-DE706FF97E38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A60641-C92B-4BCF-8F19-65E4C3B58A2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2140" yWindow="2650" windowWidth="15680" windowHeight="15370" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20120" yWindow="3330" windowWidth="15680" windowHeight="15370" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Total Production (in mil)</t>
   </si>
@@ -46,6 +46,45 @@
   </si>
   <si>
     <t>Murphy Family Ventures</t>
+  </si>
+  <si>
+    <t>Employees</t>
+  </si>
+  <si>
+    <t>Ownership</t>
+  </si>
+  <si>
+    <t>European Division carved into indpendent subisidiary in 9/24 - Morliny Foods</t>
+  </si>
+  <si>
+    <t>Streamlining effort before going public.</t>
+  </si>
+  <si>
+    <t>Also offloaded somewhat significant portion of hog production to Murphy Family Ventures in 2024.</t>
+  </si>
+  <si>
+    <t>Offloading more to HD3 Farms in NC.</t>
+  </si>
+  <si>
+    <t>IPO Details</t>
+  </si>
+  <si>
+    <t>Early 2025</t>
+  </si>
+  <si>
+    <t>20% of Smithfield shares (rest held with WH Group)</t>
+  </si>
+  <si>
+    <t>Net asset value of $5.38B as of 9/30/24</t>
+  </si>
+  <si>
+    <t>Share offering valued at $5.4B (expected)</t>
+  </si>
+  <si>
+    <t>Private - WH Group (China/Hong Kong)</t>
+  </si>
+  <si>
+    <t>150k hogs purchased by MFV, 28k by HD3</t>
   </si>
 </sst>
 </file>
@@ -92,10 +131,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -377,14 +417,84 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="9.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -394,7 +504,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
